--- a/Jogos_do_Dia/2023-01-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -653,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -871,10 +871,10 @@
         <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="N4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.23</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -981,10 +981,10 @@
         <v>4.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="N5" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
         <v>1.34</v>
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1091,10 +1091,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1201,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>4.07</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N8" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>4.02</v>
       </c>
       <c r="I9" t="n">
         <v>1.06</v>
@@ -1421,10 +1421,10 @@
         <v>3.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="N9" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1513,10 +1513,10 @@
         <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1531,10 +1531,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="N10" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1641,10 +1641,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="N11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -1754,7 +1754,7 @@
         <v>2.55</v>
       </c>
       <c r="N12" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="O12" t="n">
         <v>1.54</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.53</v>
+        <v>2.15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.08</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.27</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1861,10 +1861,10 @@
         <v>3.2</v>
       </c>
       <c r="M13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.41</v>
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="G14" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="H14" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1971,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="N14" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="H15" t="n">
-        <v>2.63</v>
+        <v>2.73</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2081,10 +2081,10 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="O15" t="n">
         <v>1.34</v>
@@ -2170,13 +2170,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>2.71</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2191,10 +2191,10 @@
         <v>3.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="N16" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.41</v>
@@ -2280,13 +2280,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.57</v>
+        <v>2.43</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2301,10 +2301,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="N17" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
@@ -2390,13 +2390,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>4.02</v>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
       <c r="H18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2411,10 +2411,10 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="I19" t="n">
         <v>1.14</v>
@@ -2521,10 +2521,10 @@
         <v>2.35</v>
       </c>
       <c r="M19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N19" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.67</v>
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H20" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2631,7 +2631,7 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="N20" t="n">
         <v>2.04</v>
@@ -2720,13 +2720,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="I21" t="n">
         <v>1.01</v>
@@ -2741,10 +2741,10 @@
         <v>3.62</v>
       </c>
       <c r="M21" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="N21" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O21" t="n">
         <v>1.38</v>
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="I22" t="n">
         <v>1.08</v>
@@ -2851,10 +2851,10 @@
         <v>2.8</v>
       </c>
       <c r="M22" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="O22" t="n">
         <v>1.49</v>
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="I23" t="n">
         <v>1.08</v>
@@ -2961,10 +2961,10 @@
         <v>2.9</v>
       </c>
       <c r="M23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="O23" t="n">
         <v>1.47</v>
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.78</v>
       </c>
       <c r="I24" t="n">
         <v>1.07</v>
@@ -3071,10 +3071,10 @@
         <v>3.08</v>
       </c>
       <c r="M24" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="I25" t="n">
         <v>1.07</v>
@@ -3181,10 +3181,10 @@
         <v>3.18</v>
       </c>
       <c r="M25" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="N25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.45</v>
@@ -3270,13 +3270,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="G26" t="n">
-        <v>2.93</v>
+        <v>3.23</v>
       </c>
       <c r="H26" t="n">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="I26" t="n">
         <v>1.1</v>
@@ -3291,10 +3291,10 @@
         <v>2.7</v>
       </c>
       <c r="M26" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="N26" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
@@ -3380,13 +3380,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="I27" t="n">
         <v>1.06</v>
@@ -3401,10 +3401,10 @@
         <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="N27" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3490,13 +3490,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
         <v>1.09</v>
@@ -3511,10 +3511,10 @@
         <v>2.89</v>
       </c>
       <c r="M28" t="n">
-        <v>2.45</v>
+        <v>2.04</v>
       </c>
       <c r="N28" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.17</v>
+        <v>5.75</v>
       </c>
       <c r="G29" t="n">
-        <v>3.96</v>
+        <v>4.37</v>
       </c>
       <c r="H29" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="I29" t="n">
         <v>1.05</v>
@@ -3621,10 +3621,10 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="N29" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
         <v>1.08</v>
@@ -3841,10 +3841,10 @@
         <v>3.1</v>
       </c>
       <c r="M31" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3892,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -3930,13 +3930,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G32" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.84</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>3.82</v>
       </c>
       <c r="M32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="N32" t="n">
         <v>2.15</v>
@@ -4040,13 +4040,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="G33" t="n">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="H33" t="n">
-        <v>6.72</v>
+        <v>6.15</v>
       </c>
       <c r="I33" t="n">
         <v>1.04</v>
@@ -4061,10 +4061,10 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="N33" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.37</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>5.2</v>
+        <v>4.78</v>
       </c>
       <c r="I34" t="n">
         <v>1.04</v>
@@ -4171,10 +4171,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="N34" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="H35" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I35" t="n">
         <v>1.09</v>
@@ -4281,10 +4281,10 @@
         <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N35" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O35" t="n">
         <v>1.5</v>
@@ -4373,7 +4373,7 @@
         <v>1.53</v>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>4.48</v>
       </c>
       <c r="H36" t="n">
         <v>5.75</v>
@@ -4391,10 +4391,10 @@
         <v>4.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="O36" t="n">
         <v>1.32</v>
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>3.98</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
         <v>1.03</v>
@@ -4501,10 +4501,10 @@
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="N37" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O37" t="n">
         <v>1.34</v>
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G38" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
         <v>1.01</v>
@@ -4611,10 +4611,10 @@
         <v>5.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="N38" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O38" t="n">
         <v>1.26</v>
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G39" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="H39" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4721,10 +4721,10 @@
         <v>2.9</v>
       </c>
       <c r="M39" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N39" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O39" t="n">
         <v>1.5</v>
@@ -4810,13 +4810,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="H40" t="n">
-        <v>2.6</v>
+        <v>3.12</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4831,10 +4831,10 @@
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -4923,10 +4923,10 @@
         <v>2.1</v>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="I41" t="n">
         <v>1.05</v>
@@ -4941,10 +4941,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="N41" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G42" t="n">
         <v>6.5</v>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I42" t="n">
         <v>1.01</v>
@@ -5051,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="N42" t="n">
         <v>2.35</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
@@ -5161,10 +5161,10 @@
         <v>2.9</v>
       </c>
       <c r="M43" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N43" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O43" t="n">
         <v>1.5</v>
@@ -5250,13 +5250,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="I44" t="n">
         <v>1.07</v>
@@ -5274,7 +5274,7 @@
         <v>2.17</v>
       </c>
       <c r="N44" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -5322,7 +5322,7 @@
         <v>2.43</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE44" t="n">
         <v>1.23</v>
@@ -5360,13 +5360,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="I45" t="n">
         <v>1.03</v>
@@ -5381,10 +5381,10 @@
         <v>4.2</v>
       </c>
       <c r="M45" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="N45" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="O45" t="n">
         <v>1.32</v>
@@ -5470,13 +5470,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="G46" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="I46" t="n">
         <v>1.04</v>
@@ -5491,10 +5491,10 @@
         <v>3.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
@@ -5580,13 +5580,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I47" t="n">
         <v>1.05</v>
@@ -5601,10 +5601,10 @@
         <v>3.25</v>
       </c>
       <c r="M47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O47" t="n">
         <v>1.39</v>
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="I48" t="n">
         <v>1.03</v>
@@ -5711,7 +5711,7 @@
         <v>3.04</v>
       </c>
       <c r="M48" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>1.72</v>
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="I49" t="n">
         <v>1.05</v>
@@ -5821,10 +5821,10 @@
         <v>3.25</v>
       </c>
       <c r="M49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O49" t="n">
         <v>1.39</v>
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H50" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I50" t="n">
         <v>1.04</v>
@@ -5931,10 +5931,10 @@
         <v>3.75</v>
       </c>
       <c r="M50" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N50" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -6020,13 +6020,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6044,7 +6044,7 @@
         <v>1.95</v>
       </c>
       <c r="N51" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O51" t="n">
         <v>1.39</v>
@@ -6130,13 +6130,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="I52" t="n">
         <v>1.05</v>
@@ -6151,10 +6151,10 @@
         <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O52" t="n">
         <v>1.39</v>
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="G53" t="n">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -6261,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="N53" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="H54" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="I54" t="n">
         <v>1.07</v>
@@ -6460,13 +6460,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="G55" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="H55" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="I55" t="n">
         <v>1.09</v>
@@ -6481,10 +6481,10 @@
         <v>2.63</v>
       </c>
       <c r="M55" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="N55" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="O55" t="n">
         <v>1.5</v>
@@ -6570,13 +6570,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G56" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H56" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="I56" t="n">
         <v>1.07</v>
@@ -6591,10 +6591,10 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="N56" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
@@ -6680,13 +6680,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G57" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="I57" t="n">
         <v>1.07</v>
@@ -6701,10 +6701,10 @@
         <v>3.25</v>
       </c>
       <c r="M57" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
@@ -6790,13 +6790,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="G58" t="n">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="H58" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="I58" t="n">
         <v>1.08</v>
@@ -6811,10 +6811,10 @@
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N58" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O58" t="n">
         <v>1.44</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="H59" t="n">
-        <v>4.75</v>
+        <v>4.57</v>
       </c>
       <c r="I59" t="n">
         <v>1.05</v>
@@ -6921,10 +6921,10 @@
         <v>3.3</v>
       </c>
       <c r="M59" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="N59" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="G60" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="H60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I60" t="n">
         <v>1.07</v>
@@ -7031,10 +7031,10 @@
         <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="N60" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="O60" t="n">
         <v>1.4</v>
@@ -7120,13 +7120,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G61" t="n">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>4.78</v>
       </c>
       <c r="I61" t="n">
         <v>1.1</v>
@@ -7144,7 +7144,7 @@
         <v>2.35</v>
       </c>
       <c r="N61" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O61" t="n">
         <v>1.5</v>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H62" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="I62" t="n">
         <v>1.1</v>
@@ -7251,10 +7251,10 @@
         <v>2.62</v>
       </c>
       <c r="M62" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N62" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O62" t="n">
         <v>1.5</v>
@@ -7340,13 +7340,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="G63" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
-        <v>4.54</v>
+        <v>4.77</v>
       </c>
       <c r="I63" t="n">
         <v>1.07</v>
@@ -7450,13 +7450,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="H64" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="I64" t="n">
         <v>1.07</v>
@@ -7471,10 +7471,10 @@
         <v>3.2</v>
       </c>
       <c r="M64" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="N64" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O64" t="n">
         <v>1.41</v>
@@ -7560,13 +7560,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.38</v>
       </c>
       <c r="I65" t="n">
         <v>1.03</v>
@@ -7581,10 +7581,10 @@
         <v>3.4</v>
       </c>
       <c r="M65" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="N65" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O65" t="n">
         <v>1.41</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="G67" t="n">
-        <v>3.14</v>
+        <v>3.45</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I67" t="n">
         <v>1.04</v>
@@ -7801,10 +7801,10 @@
         <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="N67" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O67" t="n">
         <v>1.3</v>
@@ -7890,13 +7890,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="G68" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="H68" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="I68" t="n">
         <v>1.11</v>
@@ -7905,10 +7905,10 @@
         <v>6</v>
       </c>
       <c r="K68" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L68" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M68" t="n">
         <v>2.75</v>
@@ -8021,10 +8021,10 @@
         <v>2.65</v>
       </c>
       <c r="M69" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N69" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O69" t="n">
         <v>1.51</v>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G70" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>2.55</v>
@@ -8220,13 +8220,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G71" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
-        <v>3.78</v>
+        <v>3.95</v>
       </c>
       <c r="I71" t="n">
         <v>1.11</v>
@@ -8235,16 +8235,16 @@
         <v>6</v>
       </c>
       <c r="K71" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="L71" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M71" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="N71" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O71" t="n">
         <v>1.53</v>
@@ -8283,28 +8283,28 @@
         <v>2.97</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="72">
@@ -8330,13 +8330,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.75</v>
+        <v>5.55</v>
       </c>
       <c r="G72" t="n">
-        <v>4.33</v>
+        <v>4.7</v>
       </c>
       <c r="H72" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I72" t="n">
         <v>1.03</v>
@@ -8351,10 +8351,10 @@
         <v>4.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="N72" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -8440,13 +8440,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H73" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I73" t="n">
         <v>1.07</v>
@@ -8461,10 +8461,10 @@
         <v>3.08</v>
       </c>
       <c r="M73" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="N73" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="O73" t="n">
         <v>1.45</v>
@@ -8556,7 +8556,7 @@
         <v>6.5</v>
       </c>
       <c r="H74" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="I74" t="n">
         <v>1.02</v>
@@ -8571,10 +8571,10 @@
         <v>5.87</v>
       </c>
       <c r="M74" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N74" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O74" t="n">
         <v>1.2</v>
@@ -8660,13 +8660,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>4.83</v>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H75" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I75" t="n">
         <v>1.04</v>
@@ -8681,10 +8681,10 @@
         <v>3.6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N75" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="O75" t="n">
         <v>1.36</v>
@@ -8770,13 +8770,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="H76" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="I76" t="n">
         <v>1.04</v>
@@ -8791,10 +8791,10 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="N76" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
         <v>1.33</v>
@@ -8880,13 +8880,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5.25</v>
+        <v>4.93</v>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H77" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I77" t="n">
         <v>1.04</v>
@@ -8901,10 +8901,10 @@
         <v>4.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="N77" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O77" t="n">
         <v>1.35</v>
@@ -9100,13 +9100,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="G79" t="n">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="H79" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="I79" t="n">
         <v>1.01</v>
@@ -9121,10 +9121,10 @@
         <v>3.54</v>
       </c>
       <c r="M79" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="N79" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="O79" t="n">
         <v>1.36</v>
@@ -9172,7 +9172,7 @@
         <v>1.8</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE79" t="n">
         <v>1.3</v>
@@ -9210,25 +9210,25 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="G80" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
         <v>1.45</v>
@@ -9237,10 +9237,10 @@
         <v>2.65</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q80" t="n">
         <v>1.44</v>
@@ -9249,13 +9249,13 @@
         <v>2.63</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V80" t="n">
         <v>1.44</v>
@@ -9273,13 +9273,13 @@
         <v>3.35</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="81">
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="G81" t="n">
-        <v>3.51</v>
+        <v>3.65</v>
       </c>
       <c r="H81" t="n">
-        <v>3.47</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
         <v>1.03</v>
@@ -9341,10 +9341,10 @@
         <v>4.33</v>
       </c>
       <c r="M81" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="N81" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="O81" t="n">
         <v>1.29</v>
@@ -9383,13 +9383,13 @@
         <v>3.1</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD81" t="n">
         <v>1.18</v>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="G82" t="n">
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
       <c r="H82" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="I82" t="n">
         <v>1.05</v>
@@ -9451,10 +9451,10 @@
         <v>3.6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="N82" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -9540,13 +9540,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G83" t="n">
-        <v>4.33</v>
+        <v>4.57</v>
       </c>
       <c r="H83" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I83" t="n">
         <v>1.03</v>
@@ -9561,10 +9561,10 @@
         <v>4.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N83" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O83" t="n">
         <v>1.3</v>
@@ -9650,13 +9650,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G84" t="n">
         <v>3.4</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I84" t="n">
         <v>1.04</v>
@@ -9671,10 +9671,10 @@
         <v>3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N84" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O84" t="n">
         <v>1.37</v>
@@ -9760,13 +9760,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="H85" t="n">
-        <v>3.2</v>
+        <v>4.37</v>
       </c>
       <c r="I85" t="n">
         <v>1.02</v>
@@ -9781,10 +9781,10 @@
         <v>4.33</v>
       </c>
       <c r="M85" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="N85" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="O85" t="n">
         <v>1.3</v>
@@ -9870,13 +9870,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H86" t="n">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="I86" t="n">
         <v>1.12</v>
@@ -9891,10 +9891,10 @@
         <v>2.3</v>
       </c>
       <c r="M86" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="N86" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.6</v>
@@ -9933,28 +9933,28 @@
         <v>3.19</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="87">
@@ -9980,13 +9980,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="H87" t="n">
-        <v>4.2</v>
+        <v>3.28</v>
       </c>
       <c r="I87" t="n">
         <v>1.11</v>
@@ -9998,13 +9998,13 @@
         <v>1.52</v>
       </c>
       <c r="L87" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M87" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="N87" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="O87" t="n">
         <v>1.57</v>
@@ -10043,28 +10043,28 @@
         <v>2.46</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="88">
@@ -10090,13 +10090,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G88" t="n">
         <v>6.5</v>
       </c>
       <c r="H88" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="I88" t="n">
         <v>1.01</v>
@@ -10111,10 +10111,10 @@
         <v>7.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="N88" t="n">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="O88" t="n">
         <v>1.18</v>
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="G89" t="n">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="H89" t="n">
-        <v>6.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I89" t="n">
         <v>1.05</v>
@@ -10221,10 +10221,10 @@
         <v>3.4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="N89" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O89" t="n">
         <v>1.4</v>
@@ -10310,13 +10310,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G90" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="H90" t="n">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="I90" t="n">
         <v>1.07</v>
@@ -10331,10 +10331,10 @@
         <v>3</v>
       </c>
       <c r="M90" t="n">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="N90" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="O90" t="n">
         <v>1.44</v>
@@ -10420,13 +10420,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I91" t="n">
         <v>1.01</v>
@@ -10441,10 +10441,10 @@
         <v>3.67</v>
       </c>
       <c r="M91" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="N91" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="O91" t="n">
         <v>1.38</v>
@@ -10530,13 +10530,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G92" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H92" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="I92" t="n">
         <v>1.1</v>
@@ -10551,10 +10551,10 @@
         <v>2.65</v>
       </c>
       <c r="M92" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="N92" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O92" t="n">
         <v>1.5</v>
@@ -10602,13 +10602,13 @@
         <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE92" t="n">
         <v>1.93</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG92" t="n">
         <v>0</v>
@@ -10640,13 +10640,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H93" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I93" t="n">
         <v>1.11</v>
@@ -10661,10 +10661,10 @@
         <v>2.6</v>
       </c>
       <c r="M93" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="N93" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="O93" t="n">
         <v>1.57</v>
@@ -10712,13 +10712,13 @@
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE93" t="n">
         <v>1.85</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG93" t="n">
         <v>0</v>
@@ -10750,13 +10750,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="H94" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I94" t="n">
         <v>1.08</v>
@@ -10771,10 +10771,10 @@
         <v>2.9</v>
       </c>
       <c r="M94" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="N94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O94" t="n">
         <v>1.44</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG94" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH94" t="n">
         <v>0</v>
@@ -10860,13 +10860,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="H95" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
         <v>1.11</v>
@@ -10878,13 +10878,13 @@
         <v>1.52</v>
       </c>
       <c r="L95" t="n">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="M95" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="N95" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="O95" t="n">
         <v>1.62</v>
@@ -10932,13 +10932,13 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE95" t="n">
         <v>1.9</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG95" t="n">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="G96" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="I96" t="n">
         <v>1.11</v>
@@ -10991,10 +10991,10 @@
         <v>2.55</v>
       </c>
       <c r="M96" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="N96" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="O96" t="n">
         <v>1.53</v>
@@ -11042,13 +11042,13 @@
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG96" t="n">
         <v>0</v>
@@ -11080,13 +11080,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="G97" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="H97" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
         <v>1.11</v>
@@ -11101,10 +11101,10 @@
         <v>2.55</v>
       </c>
       <c r="M97" t="n">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="N97" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="O97" t="n">
         <v>1.53</v>
@@ -11152,13 +11152,13 @@
         <v>0</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG97" t="n">
         <v>0</v>
@@ -11190,13 +11190,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="G98" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="H98" t="n">
-        <v>3.8</v>
+        <v>3.17</v>
       </c>
       <c r="I98" t="n">
         <v>1.08</v>
@@ -11211,10 +11211,10 @@
         <v>2.95</v>
       </c>
       <c r="M98" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="N98" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O98" t="n">
         <v>1.5</v>
@@ -11262,13 +11262,13 @@
         <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE98" t="n">
         <v>1.83</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG98" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="I99" t="n">
         <v>1.08</v>
@@ -11321,10 +11321,10 @@
         <v>2.9</v>
       </c>
       <c r="M99" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="N99" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O99" t="n">
         <v>1.44</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG99" t="n">
         <v>0</v>
@@ -11410,13 +11410,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="G100" t="n">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
-        <v>3.89</v>
+        <v>4.37</v>
       </c>
       <c r="I100" t="n">
         <v>1.05</v>
@@ -11431,10 +11431,10 @@
         <v>2.75</v>
       </c>
       <c r="M100" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N100" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O100" t="n">
         <v>1.5</v>
@@ -11520,13 +11520,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="G101" t="n">
-        <v>2.93</v>
+        <v>3.08</v>
       </c>
       <c r="H101" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="I101" t="n">
         <v>1.07</v>
@@ -11541,10 +11541,10 @@
         <v>2.85</v>
       </c>
       <c r="M101" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="N101" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O101" t="n">
         <v>1.5</v>
@@ -11630,13 +11630,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H102" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I102" t="n">
         <v>1.08</v>
@@ -11651,10 +11651,10 @@
         <v>2.8</v>
       </c>
       <c r="M102" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="N102" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
@@ -11702,16 +11702,16 @@
         <v>0</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH102" t="n">
         <v>0</v>
@@ -11740,13 +11740,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="G103" t="n">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="H103" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="I103" t="n">
         <v>1.05</v>
@@ -11761,10 +11761,10 @@
         <v>3.25</v>
       </c>
       <c r="M103" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="N103" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="O103" t="n">
         <v>1.4</v>
@@ -11850,13 +11850,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G104" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H104" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I104" t="n">
         <v>1.03</v>
@@ -11871,10 +11871,10 @@
         <v>4.08</v>
       </c>
       <c r="M104" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="N104" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="O104" t="n">
         <v>1.3</v>
@@ -11960,13 +11960,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I105" t="n">
         <v>1.03</v>
@@ -11981,10 +11981,10 @@
         <v>4.08</v>
       </c>
       <c r="M105" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="N105" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O105" t="n">
         <v>1.31</v>
@@ -12070,13 +12070,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="G106" t="n">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="H106" t="n">
-        <v>3.64</v>
+        <v>3.8</v>
       </c>
       <c r="I106" t="n">
         <v>1.03</v>
@@ -12094,7 +12094,7 @@
         <v>1.57</v>
       </c>
       <c r="N106" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O106" t="n">
         <v>1.29</v>
@@ -12180,13 +12180,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="H107" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="I107" t="n">
         <v>1.05</v>
@@ -12201,10 +12201,10 @@
         <v>3.6</v>
       </c>
       <c r="M107" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O107" t="n">
         <v>1.36</v>
@@ -12290,13 +12290,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G108" t="n">
-        <v>3.33</v>
+        <v>3.58</v>
       </c>
       <c r="H108" t="n">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="I108" t="n">
         <v>1.04</v>
@@ -12353,16 +12353,16 @@
         <v>3.66</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE108" t="n">
         <v>1.26</v>
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.2</v>
+        <v>3.62</v>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="H109" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="I109" t="n">
         <v>1.04</v>
@@ -12421,10 +12421,10 @@
         <v>3.6</v>
       </c>
       <c r="M109" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O109" t="n">
         <v>1.35</v>
@@ -12510,13 +12510,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G110" t="n">
-        <v>4.5</v>
+        <v>4.87</v>
       </c>
       <c r="H110" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I110" t="n">
         <v>1.03</v>
@@ -12531,10 +12531,10 @@
         <v>4.33</v>
       </c>
       <c r="M110" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="N110" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O110" t="n">
         <v>1.33</v>
@@ -12620,13 +12620,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="G111" t="n">
         <v>3.8</v>
       </c>
       <c r="H111" t="n">
-        <v>4.5</v>
+        <v>4.93</v>
       </c>
       <c r="I111" t="n">
         <v>1.03</v>
@@ -12641,10 +12641,10 @@
         <v>4.25</v>
       </c>
       <c r="M111" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N111" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O111" t="n">
         <v>1.31</v>
@@ -12730,13 +12730,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="H112" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I112" t="n">
         <v>1.03</v>
@@ -12751,10 +12751,10 @@
         <v>4</v>
       </c>
       <c r="M112" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="N112" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -12843,10 +12843,10 @@
         <v>1.62</v>
       </c>
       <c r="G113" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="I113" t="n">
         <v>1.09</v>
@@ -12861,7 +12861,7 @@
         <v>2.45</v>
       </c>
       <c r="M113" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="N113" t="n">
         <v>1.5</v>
@@ -12903,28 +12903,28 @@
         <v>3.07</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AB113" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AD113" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE113" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF113" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG113" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH113" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="114">
@@ -12950,13 +12950,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="H114" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="I114" t="n">
         <v>1.12</v>
@@ -12971,10 +12971,10 @@
         <v>2.35</v>
       </c>
       <c r="M114" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="N114" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O114" t="n">
         <v>1.62</v>
@@ -13168,13 +13168,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>1.02</v>
@@ -13189,10 +13189,10 @@
         <v>3.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N116" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O116" t="n">
         <v>1.41</v>
@@ -13276,13 +13276,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -13297,10 +13297,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="N117" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -13600,13 +13600,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="G120" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="H120" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -13621,10 +13621,10 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>2.37</v>
+        <v>2.28</v>
       </c>
       <c r="N120" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -13710,13 +13710,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G121" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I121" t="n">
         <v>1.05</v>
@@ -13731,10 +13731,10 @@
         <v>3.5</v>
       </c>
       <c r="M121" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N121" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O121" t="n">
         <v>1.36</v>
